--- a/data/trans_bre/CONS_PSICO-Estudios-trans_bre.xlsx
+++ b/data/trans_bre/CONS_PSICO-Estudios-trans_bre.xlsx
@@ -556,42 +556,42 @@
       <c r="B2" s="2" t="n"/>
       <c r="C2" s="3" t="inlineStr">
         <is>
+          <t>País Vasco</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>Andalucia</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
           <t>C.Valenciana</t>
         </is>
       </c>
-      <c r="D2" s="3" t="inlineStr">
+      <c r="F2" s="3" t="inlineStr">
         <is>
           <t>Barcelona</t>
         </is>
       </c>
-      <c r="E2" s="3" t="inlineStr">
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>País Vasco</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
         <is>
           <t>Andalucia</t>
         </is>
       </c>
-      <c r="F2" s="3" t="inlineStr">
-        <is>
-          <t>País Vasco</t>
-        </is>
-      </c>
-      <c r="G2" s="3" t="inlineStr">
+      <c r="I2" s="3" t="inlineStr">
         <is>
           <t>C.Valenciana</t>
         </is>
       </c>
-      <c r="H2" s="3" t="inlineStr">
+      <c r="J2" s="3" t="inlineStr">
         <is>
           <t>Barcelona</t>
-        </is>
-      </c>
-      <c r="I2" s="3" t="inlineStr">
-        <is>
-          <t>Andalucia</t>
-        </is>
-      </c>
-      <c r="J2" s="3" t="inlineStr">
-        <is>
-          <t>País Vasco</t>
         </is>
       </c>
     </row>
@@ -620,42 +620,42 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>13,28</t>
+          <t>15,73</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>22,49</t>
+          <t>18,14</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>16,6</t>
+          <t>13,76</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>13,04</t>
+          <t>22,96</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>84,6%</t>
+          <t>104,95%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>114,38%</t>
+          <t>103,33%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>89,01%</t>
+          <t>99,37%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>112,89%</t>
+          <t>116,0%</t>
         </is>
       </c>
     </row>
@@ -668,42 +668,42 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>8,36; 18,03</t>
+          <t>10,37; 20,38</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>10,14; 33,31</t>
+          <t>12,01; 23,67</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>12,93; 20,63</t>
+          <t>9,12; 18,38</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>9,57; 16,53</t>
+          <t>11,19; 34,85</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>43,91; 132,77</t>
+          <t>58,71; 166,77</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>30,03; 236,64</t>
+          <t>53,76; 165,93</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>61,42; 126,79</t>
+          <t>52,79; 152,44</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>72,03; 164,08</t>
+          <t>39,55; 237,74</t>
         </is>
       </c>
     </row>
@@ -720,42 +720,42 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>8,33</t>
+          <t>6,16</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>10,14</t>
+          <t>5,86</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>6,38</t>
+          <t>8,03</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>6,37</t>
+          <t>10,15</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>92,3%</t>
+          <t>67,05%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>77,8%</t>
+          <t>86,85%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>86,82%</t>
+          <t>98,58%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>75,05%</t>
+          <t>77,61%</t>
         </is>
       </c>
     </row>
@@ -768,42 +768,42 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>5,96; 10,68</t>
+          <t>4,14; 8,2</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>6,27; 14,16</t>
+          <t>0,87; 10,12</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>4,02; 8,28</t>
+          <t>5,43; 10,21</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>4,63; 7,85</t>
+          <t>6,41; 14,31</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>60,78; 134,78</t>
+          <t>41,25; 98,36</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>40,81; 125,94</t>
+          <t>21,66; 225,42</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>50,01; 126,15</t>
+          <t>56,42; 141,16</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>50,18; 99,87</t>
+          <t>43,2; 126,83</t>
         </is>
       </c>
     </row>
@@ -820,42 +820,42 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>3,19</t>
+          <t>1,43</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
+          <t>1,56</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>3,52</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
           <t>6,54</t>
         </is>
       </c>
-      <c r="E8" s="2" t="inlineStr">
-        <is>
-          <t>2,89</t>
-        </is>
-      </c>
-      <c r="F8" s="2" t="inlineStr">
-        <is>
-          <t>1,9</t>
-        </is>
-      </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>44,62%</t>
+          <t>23,09%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
+          <t>21,73%</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>59,37%</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
           <t>65,06%</t>
-        </is>
-      </c>
-      <c r="I8" s="2" t="inlineStr">
-        <is>
-          <t>47,65%</t>
-        </is>
-      </c>
-      <c r="J8" s="2" t="inlineStr">
-        <is>
-          <t>31,16%</t>
         </is>
       </c>
     </row>
@@ -868,42 +868,42 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>0,31; 6,2</t>
+          <t>-0,82; 4,19</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>2,23; 10,58</t>
+          <t>-1,65; 4,75</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>0,08; 5,39</t>
+          <t>0,71; 6,62</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-0,26; 3,98</t>
+          <t>2,4; 10,41</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>2,72; 101,65</t>
+          <t>-12,04; 83,56</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>16,94; 123,44</t>
+          <t>-18,97; 87,69</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>0,72; 112,06</t>
+          <t>6,06; 138,47</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-4,32; 80,93</t>
+          <t>18,06; 128,42</t>
         </is>
       </c>
     </row>
@@ -920,42 +920,42 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>8,38</t>
+          <t>6,69</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>10,74</t>
+          <t>7,92</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>8,65</t>
+          <t>7,97</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>6,7</t>
+          <t>10,78</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>84,67%</t>
+          <t>72,21%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>82,5%</t>
+          <t>98,79%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>97,13%</t>
+          <t>94,72%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>78,55%</t>
+          <t>82,59%</t>
         </is>
       </c>
     </row>
@@ -968,42 +968,42 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>6,67; 10,17</t>
+          <t>5,07; 8,16</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>7,61; 13,84</t>
+          <t>3,43; 11,32</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>6,71; 10,19</t>
+          <t>6,2; 9,7</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>5,47; 7,94</t>
+          <t>7,39; 13,69</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>62,65; 109,37</t>
+          <t>50,45; 94,4</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>52,35; 118,6</t>
+          <t>44,17; 189,05</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>71,59; 124,95</t>
+          <t>66,18; 125,89</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>60,64; 101,78</t>
+          <t>48,68; 117,74</t>
         </is>
       </c>
     </row>

--- a/data/trans_bre/CONS_PSICO-Estudios-trans_bre.xlsx
+++ b/data/trans_bre/CONS_PSICO-Estudios-trans_bre.xlsx
@@ -620,7 +620,7 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>15,73</t>
+          <t>16,87</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
@@ -640,7 +640,7 @@
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>104,95%</t>
+          <t>121,8%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
@@ -668,12 +668,12 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>10,37; 20,38</t>
+          <t>11,96; 21,32</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>12,01; 23,67</t>
+          <t>12,44; 24,11</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
@@ -683,17 +683,17 @@
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>11,19; 34,85</t>
+          <t>10,89; 35,46</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>58,71; 166,77</t>
+          <t>68,69; 180,68</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>53,76; 165,93</t>
+          <t>58,47; 169,47</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
@@ -703,7 +703,7 @@
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>39,55; 237,74</t>
+          <t>38,32; 251,6</t>
         </is>
       </c>
     </row>
@@ -720,7 +720,7 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>6,16</t>
+          <t>5,99</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
@@ -768,12 +768,12 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>4,14; 8,2</t>
+          <t>4,14; 7,91</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>0,87; 10,12</t>
+          <t>0,49; 10,36</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
@@ -783,17 +783,17 @@
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>6,41; 14,31</t>
+          <t>5,96; 13,95</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>41,25; 98,36</t>
+          <t>42,06; 99,66</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>21,66; 225,42</t>
+          <t>13,41; 219,22</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
@@ -803,7 +803,7 @@
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>43,2; 126,83</t>
+          <t>40,43; 124,63</t>
         </is>
       </c>
     </row>
@@ -820,7 +820,7 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>1,43</t>
+          <t>1,46</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
@@ -840,7 +840,7 @@
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>23,09%</t>
+          <t>23,24%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
@@ -868,12 +868,12 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-0,82; 4,19</t>
+          <t>-1,0; 3,77</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-1,65; 4,75</t>
+          <t>-2,19; 4,49</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
@@ -883,17 +883,17 @@
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>2,4; 10,41</t>
+          <t>2,44; 10,66</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-12,04; 83,56</t>
+          <t>-13,02; 73,37</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-18,97; 87,69</t>
+          <t>-23,33; 84,68</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
@@ -903,7 +903,7 @@
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>18,06; 128,42</t>
+          <t>19,44; 129,59</t>
         </is>
       </c>
     </row>
@@ -920,7 +920,7 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>6,69</t>
+          <t>6,43</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
@@ -940,7 +940,7 @@
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>72,21%</t>
+          <t>72,6%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
@@ -968,12 +968,12 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>5,07; 8,16</t>
+          <t>4,96; 7,85</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>3,43; 11,32</t>
+          <t>3,71; 11,14</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
@@ -983,17 +983,17 @@
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>7,39; 13,69</t>
+          <t>7,7; 13,81</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>50,45; 94,4</t>
+          <t>52,43; 96,24</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>44,17; 189,05</t>
+          <t>51,38; 188,7</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
@@ -1003,7 +1003,7 @@
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>48,68; 117,74</t>
+          <t>50,07; 118,94</t>
         </is>
       </c>
     </row>

--- a/data/trans_bre/CONS_PSICO-Estudios-trans_bre.xlsx
+++ b/data/trans_bre/CONS_PSICO-Estudios-trans_bre.xlsx
@@ -556,42 +556,42 @@
       <c r="B2" s="2" t="n"/>
       <c r="C2" s="3" t="inlineStr">
         <is>
+          <t>Andalucia</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>Barcelona</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
+          <t>C.Valenciana</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
           <t>País Vasco</t>
         </is>
       </c>
-      <c r="D2" s="3" t="inlineStr">
+      <c r="G2" s="3" t="inlineStr">
         <is>
           <t>Andalucia</t>
         </is>
       </c>
-      <c r="E2" s="3" t="inlineStr">
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>Barcelona</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
         <is>
           <t>C.Valenciana</t>
         </is>
       </c>
-      <c r="F2" s="3" t="inlineStr">
-        <is>
-          <t>Barcelona</t>
-        </is>
-      </c>
-      <c r="G2" s="3" t="inlineStr">
+      <c r="J2" s="3" t="inlineStr">
         <is>
           <t>País Vasco</t>
-        </is>
-      </c>
-      <c r="H2" s="3" t="inlineStr">
-        <is>
-          <t>Andalucia</t>
-        </is>
-      </c>
-      <c r="I2" s="3" t="inlineStr">
-        <is>
-          <t>C.Valenciana</t>
-        </is>
-      </c>
-      <c r="J2" s="3" t="inlineStr">
-        <is>
-          <t>Barcelona</t>
         </is>
       </c>
     </row>
@@ -620,42 +620,42 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
+          <t>17,8</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>22,96</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>13,76</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
           <t>16,87</t>
         </is>
       </c>
-      <c r="D4" s="2" t="inlineStr">
-        <is>
-          <t>18,14</t>
-        </is>
-      </c>
-      <c r="E4" s="2" t="inlineStr">
-        <is>
-          <t>13,76</t>
-        </is>
-      </c>
-      <c r="F4" s="2" t="inlineStr">
-        <is>
-          <t>22,96</t>
-        </is>
-      </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
+          <t>104,88%</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
+          <t>116,0%</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>99,37%</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
           <t>121,8%</t>
-        </is>
-      </c>
-      <c r="H4" s="2" t="inlineStr">
-        <is>
-          <t>103,33%</t>
-        </is>
-      </c>
-      <c r="I4" s="2" t="inlineStr">
-        <is>
-          <t>99,37%</t>
-        </is>
-      </c>
-      <c r="J4" s="2" t="inlineStr">
-        <is>
-          <t>116,0%</t>
         </is>
       </c>
     </row>
@@ -668,42 +668,42 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
+          <t>12,24; 23,22</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>10,89; 35,46</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>9,12; 18,38</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
           <t>11,96; 21,32</t>
         </is>
       </c>
-      <c r="D5" s="2" t="inlineStr">
-        <is>
-          <t>12,44; 24,11</t>
-        </is>
-      </c>
-      <c r="E5" s="2" t="inlineStr">
-        <is>
-          <t>9,12; 18,38</t>
-        </is>
-      </c>
-      <c r="F5" s="2" t="inlineStr">
-        <is>
-          <t>10,89; 35,46</t>
-        </is>
-      </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
+          <t>57,55; 170,19</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
+          <t>38,32; 251,6</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>52,79; 152,44</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
           <t>68,69; 180,68</t>
-        </is>
-      </c>
-      <c r="H5" s="2" t="inlineStr">
-        <is>
-          <t>58,47; 169,47</t>
-        </is>
-      </c>
-      <c r="I5" s="2" t="inlineStr">
-        <is>
-          <t>52,79; 152,44</t>
-        </is>
-      </c>
-      <c r="J5" s="2" t="inlineStr">
-        <is>
-          <t>38,32; 251,6</t>
         </is>
       </c>
     </row>
@@ -720,42 +720,42 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
+          <t>6,97</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>10,15</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>8,03</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
           <t>5,99</t>
         </is>
       </c>
-      <c r="D6" s="2" t="inlineStr">
-        <is>
-          <t>5,86</t>
-        </is>
-      </c>
-      <c r="E6" s="2" t="inlineStr">
-        <is>
-          <t>8,03</t>
-        </is>
-      </c>
-      <c r="F6" s="2" t="inlineStr">
-        <is>
-          <t>10,15</t>
-        </is>
-      </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
+          <t>85,76%</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
+          <t>77,61%</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>98,58%</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
           <t>67,05%</t>
-        </is>
-      </c>
-      <c r="H6" s="2" t="inlineStr">
-        <is>
-          <t>86,85%</t>
-        </is>
-      </c>
-      <c r="I6" s="2" t="inlineStr">
-        <is>
-          <t>98,58%</t>
-        </is>
-      </c>
-      <c r="J6" s="2" t="inlineStr">
-        <is>
-          <t>77,61%</t>
         </is>
       </c>
     </row>
@@ -768,42 +768,42 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
+          <t>4,71; 9,53</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>5,96; 13,95</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>5,43; 10,21</t>
+        </is>
+      </c>
+      <c r="F7" s="2" t="inlineStr">
+        <is>
           <t>4,14; 7,91</t>
         </is>
       </c>
-      <c r="D7" s="2" t="inlineStr">
-        <is>
-          <t>0,49; 10,36</t>
-        </is>
-      </c>
-      <c r="E7" s="2" t="inlineStr">
-        <is>
-          <t>5,43; 10,21</t>
-        </is>
-      </c>
-      <c r="F7" s="2" t="inlineStr">
-        <is>
-          <t>5,96; 13,95</t>
-        </is>
-      </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
+          <t>46,72; 133,33</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
+          <t>40,43; 124,63</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>56,42; 141,16</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
           <t>42,06; 99,66</t>
-        </is>
-      </c>
-      <c r="H7" s="2" t="inlineStr">
-        <is>
-          <t>13,41; 219,22</t>
-        </is>
-      </c>
-      <c r="I7" s="2" t="inlineStr">
-        <is>
-          <t>56,42; 141,16</t>
-        </is>
-      </c>
-      <c r="J7" s="2" t="inlineStr">
-        <is>
-          <t>40,43; 124,63</t>
         </is>
       </c>
     </row>
@@ -820,42 +820,42 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
+          <t>2,09</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>6,54</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>3,52</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
           <t>1,46</t>
         </is>
       </c>
-      <c r="D8" s="2" t="inlineStr">
-        <is>
-          <t>1,56</t>
-        </is>
-      </c>
-      <c r="E8" s="2" t="inlineStr">
-        <is>
-          <t>3,52</t>
-        </is>
-      </c>
-      <c r="F8" s="2" t="inlineStr">
-        <is>
-          <t>6,54</t>
-        </is>
-      </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
+          <t>30,92%</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
+          <t>65,06%</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>59,37%</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
           <t>23,24%</t>
-        </is>
-      </c>
-      <c r="H8" s="2" t="inlineStr">
-        <is>
-          <t>21,73%</t>
-        </is>
-      </c>
-      <c r="I8" s="2" t="inlineStr">
-        <is>
-          <t>59,37%</t>
-        </is>
-      </c>
-      <c r="J8" s="2" t="inlineStr">
-        <is>
-          <t>65,06%</t>
         </is>
       </c>
     </row>
@@ -868,42 +868,42 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
+          <t>-1,38; 5,07</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>2,44; 10,66</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
+          <t>0,71; 6,62</t>
+        </is>
+      </c>
+      <c r="F9" s="2" t="inlineStr">
+        <is>
           <t>-1,0; 3,77</t>
         </is>
       </c>
-      <c r="D9" s="2" t="inlineStr">
-        <is>
-          <t>-2,19; 4,49</t>
-        </is>
-      </c>
-      <c r="E9" s="2" t="inlineStr">
-        <is>
-          <t>0,71; 6,62</t>
-        </is>
-      </c>
-      <c r="F9" s="2" t="inlineStr">
-        <is>
-          <t>2,44; 10,66</t>
-        </is>
-      </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
+          <t>-18,36; 99,22</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
+          <t>19,44; 129,59</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>6,06; 138,47</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
           <t>-13,02; 73,37</t>
-        </is>
-      </c>
-      <c r="H9" s="2" t="inlineStr">
-        <is>
-          <t>-23,33; 84,68</t>
-        </is>
-      </c>
-      <c r="I9" s="2" t="inlineStr">
-        <is>
-          <t>6,06; 138,47</t>
-        </is>
-      </c>
-      <c r="J9" s="2" t="inlineStr">
-        <is>
-          <t>19,44; 129,59</t>
         </is>
       </c>
     </row>
@@ -920,42 +920,42 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
+          <t>8,67</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>10,78</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>7,97</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
           <t>6,43</t>
         </is>
       </c>
-      <c r="D10" s="2" t="inlineStr">
-        <is>
-          <t>7,92</t>
-        </is>
-      </c>
-      <c r="E10" s="2" t="inlineStr">
-        <is>
-          <t>7,97</t>
-        </is>
-      </c>
-      <c r="F10" s="2" t="inlineStr">
-        <is>
-          <t>10,78</t>
-        </is>
-      </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
+          <t>97,58%</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
+          <t>82,59%</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>94,72%</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
           <t>72,6%</t>
-        </is>
-      </c>
-      <c r="H10" s="2" t="inlineStr">
-        <is>
-          <t>98,79%</t>
-        </is>
-      </c>
-      <c r="I10" s="2" t="inlineStr">
-        <is>
-          <t>94,72%</t>
-        </is>
-      </c>
-      <c r="J10" s="2" t="inlineStr">
-        <is>
-          <t>82,59%</t>
         </is>
       </c>
     </row>
@@ -968,42 +968,42 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
+          <t>6,8; 10,61</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>7,7; 13,81</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
+          <t>6,2; 9,7</t>
+        </is>
+      </c>
+      <c r="F11" s="2" t="inlineStr">
+        <is>
           <t>4,96; 7,85</t>
         </is>
       </c>
-      <c r="D11" s="2" t="inlineStr">
-        <is>
-          <t>3,71; 11,14</t>
-        </is>
-      </c>
-      <c r="E11" s="2" t="inlineStr">
-        <is>
-          <t>6,2; 9,7</t>
-        </is>
-      </c>
-      <c r="F11" s="2" t="inlineStr">
-        <is>
-          <t>7,7; 13,81</t>
-        </is>
-      </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
+          <t>69,32; 134,99</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
+          <t>50,07; 118,94</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>66,18; 125,89</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
           <t>52,43; 96,24</t>
-        </is>
-      </c>
-      <c r="H11" s="2" t="inlineStr">
-        <is>
-          <t>51,38; 188,7</t>
-        </is>
-      </c>
-      <c r="I11" s="2" t="inlineStr">
-        <is>
-          <t>66,18; 125,89</t>
-        </is>
-      </c>
-      <c r="J11" s="2" t="inlineStr">
-        <is>
-          <t>50,07; 118,94</t>
         </is>
       </c>
     </row>
